--- a/user-data/gni-usd-current/gni-usd-current.xlsx
+++ b/user-data/gni-usd-current/gni-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1739,32 +1736,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -1780,11 +1777,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gni-usd-current/gni-usd-current.xlsx
+++ b/user-data/gni-usd-current/gni-usd-current.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1360,7 +1360,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gni-usd-current/gni-usd-current.xlsx
+++ b/user-data/gni-usd-current/gni-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1366,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1779,6 +1782,11 @@
         <v>452</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gni-usd-current/gni-usd-current.xlsx
+++ b/user-data/gni-usd-current/gni-usd-current.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1375,7 +1375,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7806,7 +7806,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>9715070921</v>
+        <v>3533900965</v>
       </c>
     </row>
     <row r="437">
@@ -7820,7 +7820,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>9911757609</v>
+        <v>3842634360</v>
       </c>
     </row>
     <row r="438">
@@ -7834,7 +7834,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>10806672843</v>
+        <v>4096441960</v>
       </c>
     </row>
     <row r="439">
@@ -7848,7 +7848,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>13017764907</v>
+        <v>4481379859</v>
       </c>
     </row>
     <row r="440">
@@ -7862,7 +7862,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>14763108673</v>
+        <v>5123749225</v>
       </c>
     </row>
     <row r="441">
@@ -7876,7 +7876,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>16432852653</v>
+        <v>6005719073</v>
       </c>
     </row>
     <row r="442">
@@ -7890,7 +7890,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>17091274824</v>
+        <v>6955824519</v>
       </c>
     </row>
     <row r="443">
@@ -7904,7 +7904,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>19535376329</v>
+        <v>8275264917</v>
       </c>
     </row>
     <row r="444">
@@ -7918,7 +7918,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>23327071772</v>
+        <v>9916229066</v>
       </c>
     </row>
     <row r="445">
@@ -7932,7 +7932,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>23342792424</v>
+        <v>9931331746</v>
       </c>
     </row>
     <row r="446">
@@ -7946,7 +7946,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>23972202221</v>
+        <v>10698066763</v>
       </c>
     </row>
     <row r="447">
@@ -7960,7 +7960,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>24393311762</v>
+        <v>12260841141</v>
       </c>
     </row>
     <row r="448">
@@ -7974,7 +7974,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>26178125524</v>
+        <v>13409081701</v>
       </c>
     </row>
     <row r="449">
@@ -7988,7 +7988,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>29881669525</v>
+        <v>14486362903</v>
       </c>
     </row>
     <row r="450">
@@ -8002,7 +8002,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>3533900965</v>
+        <v>8693917983</v>
       </c>
     </row>
     <row r="451">
@@ -8016,7 +8016,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>3842634360</v>
+        <v>8937271171</v>
       </c>
     </row>
     <row r="452">
@@ -8030,7 +8030,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>4096441960</v>
+        <v>10206949919</v>
       </c>
     </row>
     <row r="453">
@@ -8044,7 +8044,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>4481379859</v>
+        <v>13096222013</v>
       </c>
     </row>
     <row r="454">
@@ -8058,7 +8058,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>5123749225</v>
+        <v>15372668764</v>
       </c>
     </row>
     <row r="455">
@@ -8072,7 +8072,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>6005719073</v>
+        <v>16099188628</v>
       </c>
     </row>
     <row r="456">
@@ -8086,7 +8086,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>6955824519</v>
+        <v>17701031894</v>
       </c>
     </row>
     <row r="457">
@@ -8100,7 +8100,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>8275264917</v>
+        <v>19931427640</v>
       </c>
     </row>
     <row r="458">
@@ -8114,7 +8114,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>9916229066</v>
+        <v>22909661925</v>
       </c>
     </row>
     <row r="459">
@@ -8128,7 +8128,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>9931331746</v>
+        <v>23267453399</v>
       </c>
     </row>
     <row r="460">
@@ -8142,7 +8142,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>10698066763</v>
+        <v>23358488246</v>
       </c>
     </row>
     <row r="461">
@@ -8156,7 +8156,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>12260841141</v>
+        <v>26284141655</v>
       </c>
     </row>
     <row r="462">
@@ -8170,7 +8170,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>13409081701</v>
+        <v>26026643605</v>
       </c>
     </row>
     <row r="463">
@@ -8184,7 +8184,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>14486362903</v>
+        <v>28948121610</v>
       </c>
     </row>
     <row r="464">
@@ -8198,7 +8198,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>8693917983</v>
+        <v>719914000000</v>
       </c>
     </row>
     <row r="465">
@@ -8212,7 +8212,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>8937271171</v>
+        <v>711908000000</v>
       </c>
     </row>
     <row r="466">
@@ -8226,7 +8226,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>10206949919</v>
+        <v>733284000000</v>
       </c>
     </row>
     <row r="467">
@@ -8240,7 +8240,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>13096222013</v>
+        <v>865726000000</v>
       </c>
     </row>
     <row r="468">
@@ -8254,7 +8254,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>15372668764</v>
+        <v>996259000000</v>
       </c>
     </row>
     <row r="469">
@@ -8268,7 +8268,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>16099188628</v>
+        <v>1140230000000</v>
       </c>
     </row>
     <row r="470">
@@ -8282,7 +8282,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>17701031894</v>
+        <v>1289840000000</v>
       </c>
     </row>
     <row r="471">
@@ -8296,7 +8296,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>19931427640</v>
+        <v>1436350000000</v>
       </c>
     </row>
     <row r="472">
@@ -8310,7 +8310,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>22909661925</v>
+        <v>1519080000000</v>
       </c>
     </row>
     <row r="473">
@@ -8324,7 +8324,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>23267453399</v>
+        <v>1346650000000</v>
       </c>
     </row>
     <row r="474">
@@ -8338,7 +8338,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>23358488246</v>
+        <v>1582760000000</v>
       </c>
     </row>
     <row r="475">
@@ -8352,7 +8352,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>26284141655</v>
+        <v>1745890000000</v>
       </c>
     </row>
     <row r="476">
@@ -8366,7 +8366,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>26026643605</v>
+        <v>1788810000000</v>
       </c>
     </row>
     <row r="477">
@@ -8380,7 +8380,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>28948121610</v>
+        <v>1799850000000</v>
       </c>
     </row>
     <row r="478">
@@ -8394,7 +8394,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>719914000000</v>
+        <v>525174110.6</v>
       </c>
     </row>
     <row r="479">
@@ -8408,7 +8408,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>711908000000</v>
+        <v>556963791.2</v>
       </c>
     </row>
     <row r="480">
@@ -8422,7 +8422,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>733284000000</v>
+        <v>606246149.1</v>
       </c>
     </row>
     <row r="481">
@@ -8436,7 +8436,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>865726000000</v>
+        <v>799436988.1</v>
       </c>
     </row>
     <row r="482">
@@ -8450,7 +8450,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>996259000000</v>
+        <v>906125354.3</v>
       </c>
     </row>
     <row r="483">
@@ -8464,7 +8464,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>1140230000000</v>
+        <v>938319881.2</v>
       </c>
     </row>
     <row r="484">
@@ -8478,7 +8478,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>1289840000000</v>
+        <v>1062929390</v>
       </c>
     </row>
     <row r="485">
@@ -8492,7 +8492,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>1436350000000</v>
+        <v>1482535173</v>
       </c>
     </row>
     <row r="486">
@@ -8506,7 +8506,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>1519080000000</v>
+        <v>1742236224</v>
       </c>
     </row>
     <row r="487">
@@ -8520,7 +8520,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>1346650000000</v>
+        <v>1668452923</v>
       </c>
     </row>
     <row r="488">
@@ -8534,7 +8534,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>1582760000000</v>
+        <v>1591146991</v>
       </c>
     </row>
     <row r="489">
@@ -8548,7 +8548,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>1745890000000</v>
+        <v>1791730717</v>
       </c>
     </row>
     <row r="490">
@@ -8562,7 +8562,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>1788810000000</v>
+        <v>1686986126</v>
       </c>
     </row>
     <row r="491">
@@ -8576,7 +8576,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>1799850000000</v>
+        <v>1817524693</v>
       </c>
     </row>
     <row r="492">
@@ -8590,7 +8590,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>525174110.6</v>
+        <v>901436116.3</v>
       </c>
     </row>
     <row r="493">
@@ -8604,7 +8604,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>556963791.2</v>
+        <v>924010104.2</v>
       </c>
     </row>
     <row r="494">
@@ -8618,7 +8618,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>606246149.1</v>
+        <v>982309380.1</v>
       </c>
     </row>
     <row r="495">
@@ -8632,7 +8632,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>799436988.1</v>
+        <v>1136966990</v>
       </c>
     </row>
     <row r="496">
@@ -8646,7 +8646,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>906125354.3</v>
+        <v>1256265498</v>
       </c>
     </row>
     <row r="497">
@@ -8660,7 +8660,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>938319881.2</v>
+        <v>1340079424</v>
       </c>
     </row>
     <row r="498">
@@ -8674,7 +8674,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>1062929390</v>
+        <v>1462249394</v>
       </c>
     </row>
     <row r="499">
@@ -8688,7 +8688,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>1482535173</v>
+        <v>1687431517</v>
       </c>
     </row>
     <row r="500">
@@ -8702,7 +8702,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>1742236224</v>
+        <v>1962487694</v>
       </c>
     </row>
     <row r="501">
@@ -8716,7 +8716,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>1668452923</v>
+        <v>1960609518</v>
       </c>
     </row>
     <row r="502">
@@ -8730,7 +8730,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>1591146991</v>
+        <v>1981474658</v>
       </c>
     </row>
     <row r="503">
@@ -8744,7 +8744,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>1791730717</v>
+        <v>2190437010</v>
       </c>
     </row>
     <row r="504">
@@ -8758,7 +8758,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>1686986126</v>
+        <v>2168631052</v>
       </c>
     </row>
     <row r="505">
@@ -8772,7 +8772,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>1817524693</v>
+        <v>1537086455</v>
       </c>
     </row>
     <row r="506">
@@ -8785,9 +8785,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>901436116.3</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8799,9 +8797,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>924010104.2</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8813,9 +8809,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>982309380.1</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8827,9 +8821,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>1136966990</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8841,9 +8833,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>1256265498</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8855,9 +8845,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>1340079424</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8869,9 +8857,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>1462249394</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8883,9 +8869,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>1687431517</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8897,9 +8881,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>1962487694</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8911,9 +8893,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>1960609518</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8925,9 +8905,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>1981474658</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8939,9 +8917,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>2190437010</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8953,9 +8929,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>2168631052</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8967,9 +8941,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>1537086455</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8981,7 +8953,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>1283434521</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8993,7 +8967,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>1367402906</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9005,7 +8981,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>713059829.5</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9017,7 +8995,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>1859143357</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9029,7 +9009,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>3521569230</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9041,7 +9023,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>5709652789</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9053,7 +9037,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>7631179217</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9065,7 +9051,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>8480509777</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9077,7 +9065,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>10085790582</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9089,7 +9079,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>8867908890</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9101,7 +9093,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>10302235238</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9113,7 +9107,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>11842260474</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9125,7 +9121,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>12228489373</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9137,7 +9135,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>12926055799</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9150,7 +9150,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>1283434521</v>
+        <v>76450892762</v>
       </c>
     </row>
     <row r="535">
@@ -9164,7 +9164,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>1367402906</v>
+        <v>69835951754</v>
       </c>
     </row>
     <row r="536">
@@ -9178,7 +9178,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>713059829.5</v>
+        <v>68132248923</v>
       </c>
     </row>
     <row r="537">
@@ -9192,7 +9192,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>1859143357</v>
+        <v>73378398708</v>
       </c>
     </row>
     <row r="538">
@@ -9206,7 +9206,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>3521569230</v>
+        <v>92792713003</v>
       </c>
     </row>
     <row r="539">
@@ -9220,7 +9220,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>5709652789</v>
+        <v>113944000000</v>
       </c>
     </row>
     <row r="540">
@@ -9234,7 +9234,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>7631179217</v>
+        <v>136258000000</v>
       </c>
     </row>
     <row r="541">
@@ -9248,7 +9248,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>8480509777</v>
+        <v>154340000000</v>
       </c>
     </row>
     <row r="542">
@@ -9262,7 +9262,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>10085790582</v>
+        <v>166929000000</v>
       </c>
     </row>
     <row r="543">
@@ -9276,7 +9276,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>8867908890</v>
+        <v>161172000000</v>
       </c>
     </row>
     <row r="544">
@@ -9290,7 +9290,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>10302235238</v>
+        <v>202874000000</v>
       </c>
     </row>
     <row r="545">
@@ -9304,7 +9304,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>11842260474</v>
+        <v>237241000000</v>
       </c>
     </row>
     <row r="546">
@@ -9318,7 +9318,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>12228489373</v>
+        <v>254758000000</v>
       </c>
     </row>
     <row r="547">
@@ -9332,7 +9332,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>12926055799</v>
+        <v>266076000000</v>
       </c>
     </row>
     <row r="548">
@@ -9346,7 +9346,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>76450892762</v>
+        <v>1183810000000</v>
       </c>
     </row>
     <row r="549">
@@ -9360,7 +9360,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>69835951754</v>
+        <v>1305630000000</v>
       </c>
     </row>
     <row r="550">
@@ -9374,7 +9374,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>68132248923</v>
+        <v>1438880000000</v>
       </c>
     </row>
     <row r="551">
@@ -9388,7 +9388,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>73378398708</v>
+        <v>1630740000000</v>
       </c>
     </row>
     <row r="552">
@@ -9402,7 +9402,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>92792713003</v>
+        <v>1926510000000</v>
       </c>
     </row>
     <row r="553">
@@ -9416,7 +9416,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>113944000000</v>
+        <v>2240790000000</v>
       </c>
     </row>
     <row r="554">
@@ -9430,7 +9430,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>136258000000</v>
+        <v>2707810000000</v>
       </c>
     </row>
     <row r="555">
@@ -9444,7 +9444,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>154340000000</v>
+        <v>3502100000000</v>
       </c>
     </row>
     <row r="556">
@@ -9458,7 +9458,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>166929000000</v>
+        <v>4550410000000</v>
       </c>
     </row>
     <row r="557">
@@ -9472,7 +9472,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>161172000000</v>
+        <v>4981700000000</v>
       </c>
     </row>
     <row r="558">
@@ -9486,7 +9486,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>202874000000</v>
+        <v>5904610000000</v>
       </c>
     </row>
     <row r="559">
@@ -9500,7 +9500,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>237241000000</v>
+        <v>7251600000000</v>
       </c>
     </row>
     <row r="560">
@@ -9514,7 +9514,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>254758000000</v>
+        <v>8209600000000</v>
       </c>
     </row>
     <row r="561">
@@ -9528,7 +9528,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>266076000000</v>
+        <v>9196170000000</v>
       </c>
     </row>
     <row r="562">
@@ -9542,7 +9542,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>1183810000000</v>
+        <v>97729650050</v>
       </c>
     </row>
     <row r="563">
@@ -9556,7 +9556,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1305630000000</v>
+        <v>95779460550</v>
       </c>
     </row>
     <row r="564">
@@ -9570,7 +9570,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>1438880000000</v>
+        <v>95300395483</v>
       </c>
     </row>
     <row r="565">
@@ -9584,7 +9584,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>1630740000000</v>
+        <v>91452657617</v>
       </c>
     </row>
     <row r="566">
@@ -9598,7 +9598,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>1926510000000</v>
+        <v>113011000000</v>
       </c>
     </row>
     <row r="567">
@@ -9612,7 +9612,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>2240790000000</v>
+        <v>141255000000</v>
       </c>
     </row>
     <row r="568">
@@ -9626,7 +9626,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2707810000000</v>
+        <v>157081000000</v>
       </c>
     </row>
     <row r="569">
@@ -9640,7 +9640,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>3502100000000</v>
+        <v>199772000000</v>
       </c>
     </row>
     <row r="570">
@@ -9654,7 +9654,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>4550410000000</v>
+        <v>234503000000</v>
       </c>
     </row>
     <row r="571">
@@ -9668,7 +9668,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>4981700000000</v>
+        <v>225455000000</v>
       </c>
     </row>
     <row r="572">
@@ -9682,7 +9682,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>5904610000000</v>
+        <v>275791000000</v>
       </c>
     </row>
     <row r="573">
@@ -9696,7 +9696,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>7251600000000</v>
+        <v>319928000000</v>
       </c>
     </row>
     <row r="574">
@@ -9710,7 +9710,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>8209600000000</v>
+        <v>355285000000</v>
       </c>
     </row>
     <row r="575">
@@ -9724,7 +9724,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>9196170000000</v>
+        <v>364217000000</v>
       </c>
     </row>
     <row r="576">
@@ -9738,7 +9738,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>97729650050</v>
+        <v>202241028.3</v>
       </c>
     </row>
     <row r="577">
@@ -9752,7 +9752,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>95779460550</v>
+        <v>220806717.3</v>
       </c>
     </row>
     <row r="578">
@@ -9766,7 +9766,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>95300395483</v>
+        <v>245984357.4</v>
       </c>
     </row>
     <row r="579">
@@ -9780,7 +9780,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>91452657617</v>
+        <v>316212688.7</v>
       </c>
     </row>
     <row r="580">
@@ -9794,7 +9794,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>113011000000</v>
+        <v>365981590.4</v>
       </c>
     </row>
     <row r="581">
@@ -9808,7 +9808,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>141255000000</v>
+        <v>378701227.5</v>
       </c>
     </row>
     <row r="582">
@@ -9822,7 +9822,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>157081000000</v>
+        <v>404673998.2</v>
       </c>
     </row>
     <row r="583">
@@ -9836,7 +9836,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>199772000000</v>
+        <v>461362252.1</v>
       </c>
     </row>
     <row r="584">
@@ -9850,7 +9850,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>234503000000</v>
+        <v>521949839.4</v>
       </c>
     </row>
     <row r="585">
@@ -9864,7 +9864,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>225455000000</v>
+        <v>523013648.1</v>
       </c>
     </row>
     <row r="586">
@@ -9878,7 +9878,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>275791000000</v>
+        <v>529362737.8</v>
       </c>
     </row>
     <row r="587">
@@ -9892,7 +9892,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>319928000000</v>
+        <v>585067732.6</v>
       </c>
     </row>
     <row r="588">
@@ -9906,7 +9906,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>355285000000</v>
+        <v>569709188.6</v>
       </c>
     </row>
     <row r="589">
@@ -9920,7 +9920,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>364217000000</v>
+        <v>617439683.4</v>
       </c>
     </row>
     <row r="590">
@@ -9934,7 +9934,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>202241028.3</v>
+        <v>2275221208</v>
       </c>
     </row>
     <row r="591">
@@ -9948,7 +9948,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>220806717.3</v>
+        <v>1967707317</v>
       </c>
     </row>
     <row r="592">
@@ -9962,7 +9962,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>245984357.4</v>
+        <v>2173255458</v>
       </c>
     </row>
     <row r="593">
@@ -9976,7 +9976,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>316212688.7</v>
+        <v>2578201938</v>
       </c>
     </row>
     <row r="594">
@@ -9990,7 +9990,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>365981590.4</v>
+        <v>3161681793</v>
       </c>
     </row>
     <row r="595">
@@ -10004,7 +10004,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>378701227.5</v>
+        <v>4032288390</v>
       </c>
     </row>
     <row r="596">
@@ -10018,7 +10018,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>404673998.2</v>
+        <v>5105401153</v>
       </c>
     </row>
     <row r="597">
@@ -10032,7 +10032,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>461362252.1</v>
+        <v>5774289433</v>
       </c>
     </row>
     <row r="598">
@@ -10046,7 +10046,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>521949839.4</v>
+        <v>8768093932</v>
       </c>
     </row>
     <row r="599">
@@ -10060,7 +10060,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>523013648.1</v>
+        <v>6978833031</v>
       </c>
     </row>
     <row r="600">
@@ -10074,7 +10074,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>529362737.8</v>
+        <v>9024207212</v>
       </c>
     </row>
     <row r="601">
@@ -10088,7 +10088,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>585067732.6</v>
+        <v>10713457667</v>
       </c>
     </row>
     <row r="602">
@@ -10102,7 +10102,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>569709188.6</v>
+        <v>10541860084</v>
       </c>
     </row>
     <row r="603">
@@ -10116,7 +10116,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>617439683.4</v>
+        <v>11049893387</v>
       </c>
     </row>
     <row r="604">
@@ -10130,7 +10130,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>2275221208</v>
+        <v>14694008016</v>
       </c>
     </row>
     <row r="605">
@@ -10144,7 +10144,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>1967707317</v>
+        <v>15724254954</v>
       </c>
     </row>
     <row r="606">
@@ -10158,7 +10158,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>2173255458</v>
+        <v>16404585172</v>
       </c>
     </row>
     <row r="607">
@@ -10172,7 +10172,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>2578201938</v>
+        <v>16741657421</v>
       </c>
     </row>
     <row r="608">
@@ -10186,7 +10186,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>3161681793</v>
+        <v>18156384016</v>
       </c>
     </row>
     <row r="609">
@@ -10200,7 +10200,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>4032288390</v>
+        <v>19756371751</v>
       </c>
     </row>
     <row r="610">
@@ -10214,7 +10214,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>5105401153</v>
+        <v>22530740184</v>
       </c>
     </row>
     <row r="611">
@@ -10228,7 +10228,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>5774289433</v>
+        <v>25457276185</v>
       </c>
     </row>
     <row r="612">
@@ -10242,7 +10242,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>8768093932</v>
+        <v>29414072576</v>
       </c>
     </row>
     <row r="613">
@@ -10256,7 +10256,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>6978833031</v>
+        <v>28298950581</v>
       </c>
     </row>
     <row r="614">
@@ -10270,7 +10270,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>9024207212</v>
+        <v>35553167787</v>
       </c>
     </row>
     <row r="615">
@@ -10284,7 +10284,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>10713457667</v>
+        <v>40648314463</v>
       </c>
     </row>
     <row r="616">
@@ -10298,7 +10298,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>10541860084</v>
+        <v>44545381752</v>
       </c>
     </row>
     <row r="617">
@@ -10312,7 +10312,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>11049893387</v>
+        <v>48525749298</v>
       </c>
     </row>
     <row r="618">
@@ -10326,7 +10326,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>14694008016</v>
+        <v>9715070921</v>
       </c>
     </row>
     <row r="619">
@@ -10340,7 +10340,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>15724254954</v>
+        <v>9911757609</v>
       </c>
     </row>
     <row r="620">
@@ -10354,7 +10354,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>16404585172</v>
+        <v>10806672843</v>
       </c>
     </row>
     <row r="621">
@@ -10368,7 +10368,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>16741657421</v>
+        <v>13017764907</v>
       </c>
     </row>
     <row r="622">
@@ -10382,7 +10382,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>18156384016</v>
+        <v>14763108673</v>
       </c>
     </row>
     <row r="623">
@@ -10396,7 +10396,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>19756371751</v>
+        <v>16432852653</v>
       </c>
     </row>
     <row r="624">
@@ -10410,7 +10410,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>22530740184</v>
+        <v>17091274824</v>
       </c>
     </row>
     <row r="625">
@@ -10424,7 +10424,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>25457276185</v>
+        <v>19535376329</v>
       </c>
     </row>
     <row r="626">
@@ -10438,7 +10438,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>29414072576</v>
+        <v>23327071772</v>
       </c>
     </row>
     <row r="627">
@@ -10452,7 +10452,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>28298950581</v>
+        <v>23342792424</v>
       </c>
     </row>
     <row r="628">
@@ -10466,7 +10466,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>35553167787</v>
+        <v>23972202221</v>
       </c>
     </row>
     <row r="629">
@@ -10480,7 +10480,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>40648314463</v>
+        <v>24393311762</v>
       </c>
     </row>
     <row r="630">
@@ -10494,7 +10494,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>44545381752</v>
+        <v>26178125524</v>
       </c>
     </row>
     <row r="631">
@@ -10508,7 +10508,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>48525749298</v>
+        <v>29881669525</v>
       </c>
     </row>
     <row r="632">
@@ -40432,7 +40432,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>30319527427</v>
+        <v>1557540000000</v>
       </c>
     </row>
     <row r="2803">
@@ -40446,7 +40446,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>37342344577</v>
+        <v>1543050000000</v>
       </c>
     </row>
     <row r="2804">
@@ -40460,7 +40460,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>41786896031</v>
+        <v>1700260000000</v>
       </c>
     </row>
     <row r="2805">
@@ -40474,7 +40474,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>49551953288</v>
+        <v>1974540000000</v>
       </c>
     </row>
     <row r="2806">
@@ -40488,7 +40488,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>64084296565</v>
+        <v>2337850000000</v>
       </c>
     </row>
     <row r="2807">
@@ -40502,7 +40502,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>85157018069</v>
+        <v>2467920000000</v>
       </c>
     </row>
     <row r="2808">
@@ -40516,7 +40516,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>106031000000</v>
+        <v>2609490000000</v>
       </c>
     </row>
     <row r="2809">
@@ -40530,7 +40530,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>140602000000</v>
+        <v>2991420000000</v>
       </c>
     </row>
     <row r="2810">
@@ -40544,7 +40544,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>178452000000</v>
+        <v>2796590000000</v>
       </c>
     </row>
     <row r="2811">
@@ -40558,7 +40558,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>114788000000</v>
+        <v>2312880000000</v>
       </c>
     </row>
     <row r="2812">
@@ -40572,7 +40572,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>134410000000</v>
+        <v>2434460000000</v>
       </c>
     </row>
     <row r="2813">
@@ -40586,7 +40586,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>161004000000</v>
+        <v>2621860000000</v>
       </c>
     </row>
     <row r="2814">
@@ -40600,7 +40600,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>180603000000</v>
+        <v>2606640000000</v>
       </c>
     </row>
     <row r="2815">
@@ -40614,7 +40614,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>180979000000</v>
+        <v>2657930000000</v>
       </c>
     </row>
     <row r="2816">
@@ -40628,7 +40628,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>1557540000000</v>
+        <v>30319527427</v>
       </c>
     </row>
     <row r="2817">
@@ -40642,7 +40642,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>1543050000000</v>
+        <v>37342344577</v>
       </c>
     </row>
     <row r="2818">
@@ -40656,7 +40656,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>1700260000000</v>
+        <v>41786896031</v>
       </c>
     </row>
     <row r="2819">
@@ -40670,7 +40670,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>1974540000000</v>
+        <v>49551953288</v>
       </c>
     </row>
     <row r="2820">
@@ -40684,7 +40684,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>2337850000000</v>
+        <v>64084296565</v>
       </c>
     </row>
     <row r="2821">
@@ -40698,7 +40698,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>2467920000000</v>
+        <v>85157018069</v>
       </c>
     </row>
     <row r="2822">
@@ -40712,7 +40712,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>2609490000000</v>
+        <v>106031000000</v>
       </c>
     </row>
     <row r="2823">
@@ -40726,7 +40726,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>2991420000000</v>
+        <v>140602000000</v>
       </c>
     </row>
     <row r="2824">
@@ -40740,7 +40740,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>2796590000000</v>
+        <v>178452000000</v>
       </c>
     </row>
     <row r="2825">
@@ -40754,7 +40754,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>2312880000000</v>
+        <v>114788000000</v>
       </c>
     </row>
     <row r="2826">
@@ -40768,7 +40768,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>2434460000000</v>
+        <v>134410000000</v>
       </c>
     </row>
     <row r="2827">
@@ -40782,7 +40782,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>2621860000000</v>
+        <v>161004000000</v>
       </c>
     </row>
     <row r="2828">
@@ -40796,7 +40796,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>2606640000000</v>
+        <v>180603000000</v>
       </c>
     </row>
     <row r="2829">
@@ -40810,7 +40810,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>2657930000000</v>
+        <v>180979000000</v>
       </c>
     </row>
     <row r="2830">
@@ -44271,46 +44271,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>9715070921</v>
+        <v>3533900965</v>
       </c>
       <c r="D33" t="n">
-        <v>9911757609</v>
+        <v>3842634360</v>
       </c>
       <c r="E33" t="n">
-        <v>10806672843</v>
+        <v>4096441960</v>
       </c>
       <c r="F33" t="n">
-        <v>13017764907</v>
+        <v>4481379859</v>
       </c>
       <c r="G33" t="n">
-        <v>14763108673</v>
+        <v>5123749225</v>
       </c>
       <c r="H33" t="n">
-        <v>16432852653</v>
+        <v>6005719073</v>
       </c>
       <c r="I33" t="n">
-        <v>17091274824</v>
+        <v>6955824519</v>
       </c>
       <c r="J33" t="n">
-        <v>19535376329</v>
+        <v>8275264917</v>
       </c>
       <c r="K33" t="n">
-        <v>23327071772</v>
+        <v>9916229066</v>
       </c>
       <c r="L33" t="n">
-        <v>23342792424</v>
+        <v>9931331746</v>
       </c>
       <c r="M33" t="n">
-        <v>23972202221</v>
+        <v>10698066763</v>
       </c>
       <c r="N33" t="n">
-        <v>24393311762</v>
+        <v>12260841141</v>
       </c>
       <c r="O33" t="n">
-        <v>26178125524</v>
+        <v>13409081701</v>
       </c>
       <c r="P33" t="n">
-        <v>29881669525</v>
+        <v>14486362903</v>
       </c>
     </row>
     <row r="34">
@@ -44321,46 +44321,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>3533900965</v>
+        <v>8693917983</v>
       </c>
       <c r="D34" t="n">
-        <v>3842634360</v>
+        <v>8937271171</v>
       </c>
       <c r="E34" t="n">
-        <v>4096441960</v>
+        <v>10206949919</v>
       </c>
       <c r="F34" t="n">
-        <v>4481379859</v>
+        <v>13096222013</v>
       </c>
       <c r="G34" t="n">
-        <v>5123749225</v>
+        <v>15372668764</v>
       </c>
       <c r="H34" t="n">
-        <v>6005719073</v>
+        <v>16099188628</v>
       </c>
       <c r="I34" t="n">
-        <v>6955824519</v>
+        <v>17701031894</v>
       </c>
       <c r="J34" t="n">
-        <v>8275264917</v>
+        <v>19931427640</v>
       </c>
       <c r="K34" t="n">
-        <v>9916229066</v>
+        <v>22909661925</v>
       </c>
       <c r="L34" t="n">
-        <v>9931331746</v>
+        <v>23267453399</v>
       </c>
       <c r="M34" t="n">
-        <v>10698066763</v>
+        <v>23358488246</v>
       </c>
       <c r="N34" t="n">
-        <v>12260841141</v>
+        <v>26284141655</v>
       </c>
       <c r="O34" t="n">
-        <v>13409081701</v>
+        <v>26026643605</v>
       </c>
       <c r="P34" t="n">
-        <v>14486362903</v>
+        <v>28948121610</v>
       </c>
     </row>
     <row r="35">
@@ -44371,46 +44371,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>8693917983</v>
+        <v>719914000000</v>
       </c>
       <c r="D35" t="n">
-        <v>8937271171</v>
+        <v>711908000000</v>
       </c>
       <c r="E35" t="n">
-        <v>10206949919</v>
+        <v>733284000000</v>
       </c>
       <c r="F35" t="n">
-        <v>13096222013</v>
+        <v>865726000000</v>
       </c>
       <c r="G35" t="n">
-        <v>15372668764</v>
+        <v>996259000000</v>
       </c>
       <c r="H35" t="n">
-        <v>16099188628</v>
+        <v>1140230000000</v>
       </c>
       <c r="I35" t="n">
-        <v>17701031894</v>
+        <v>1289840000000</v>
       </c>
       <c r="J35" t="n">
-        <v>19931427640</v>
+        <v>1436350000000</v>
       </c>
       <c r="K35" t="n">
-        <v>22909661925</v>
+        <v>1519080000000</v>
       </c>
       <c r="L35" t="n">
-        <v>23267453399</v>
+        <v>1346650000000</v>
       </c>
       <c r="M35" t="n">
-        <v>23358488246</v>
+        <v>1582760000000</v>
       </c>
       <c r="N35" t="n">
-        <v>26284141655</v>
+        <v>1745890000000</v>
       </c>
       <c r="O35" t="n">
-        <v>26026643605</v>
+        <v>1788810000000</v>
       </c>
       <c r="P35" t="n">
-        <v>28948121610</v>
+        <v>1799850000000</v>
       </c>
     </row>
     <row r="36">
@@ -44421,46 +44421,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>719914000000</v>
+        <v>525174110.6</v>
       </c>
       <c r="D36" t="n">
-        <v>711908000000</v>
+        <v>556963791.2</v>
       </c>
       <c r="E36" t="n">
-        <v>733284000000</v>
+        <v>606246149.1</v>
       </c>
       <c r="F36" t="n">
-        <v>865726000000</v>
+        <v>799436988.1</v>
       </c>
       <c r="G36" t="n">
-        <v>996259000000</v>
+        <v>906125354.3</v>
       </c>
       <c r="H36" t="n">
-        <v>1140230000000</v>
+        <v>938319881.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1289840000000</v>
+        <v>1062929390</v>
       </c>
       <c r="J36" t="n">
-        <v>1436350000000</v>
+        <v>1482535173</v>
       </c>
       <c r="K36" t="n">
-        <v>1519080000000</v>
+        <v>1742236224</v>
       </c>
       <c r="L36" t="n">
-        <v>1346650000000</v>
+        <v>1668452923</v>
       </c>
       <c r="M36" t="n">
-        <v>1582760000000</v>
+        <v>1591146991</v>
       </c>
       <c r="N36" t="n">
-        <v>1745890000000</v>
+        <v>1791730717</v>
       </c>
       <c r="O36" t="n">
-        <v>1788810000000</v>
+        <v>1686986126</v>
       </c>
       <c r="P36" t="n">
-        <v>1799850000000</v>
+        <v>1817524693</v>
       </c>
     </row>
     <row r="37">
@@ -44471,46 +44471,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>525174110.6</v>
+        <v>901436116.3</v>
       </c>
       <c r="D37" t="n">
-        <v>556963791.2</v>
+        <v>924010104.2</v>
       </c>
       <c r="E37" t="n">
-        <v>606246149.1</v>
+        <v>982309380.1</v>
       </c>
       <c r="F37" t="n">
-        <v>799436988.1</v>
+        <v>1136966990</v>
       </c>
       <c r="G37" t="n">
-        <v>906125354.3</v>
+        <v>1256265498</v>
       </c>
       <c r="H37" t="n">
-        <v>938319881.2</v>
+        <v>1340079424</v>
       </c>
       <c r="I37" t="n">
-        <v>1062929390</v>
+        <v>1462249394</v>
       </c>
       <c r="J37" t="n">
-        <v>1482535173</v>
+        <v>1687431517</v>
       </c>
       <c r="K37" t="n">
-        <v>1742236224</v>
+        <v>1962487694</v>
       </c>
       <c r="L37" t="n">
-        <v>1668452923</v>
+        <v>1960609518</v>
       </c>
       <c r="M37" t="n">
-        <v>1591146991</v>
+        <v>1981474658</v>
       </c>
       <c r="N37" t="n">
-        <v>1791730717</v>
+        <v>2190437010</v>
       </c>
       <c r="O37" t="n">
-        <v>1686986126</v>
+        <v>2168631052</v>
       </c>
       <c r="P37" t="n">
-        <v>1817524693</v>
+        <v>1537086455</v>
       </c>
     </row>
     <row r="38">
@@ -44520,48 +44520,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>901436116.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>924010104.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>982309380.1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1136966990</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1256265498</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1340079424</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1462249394</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1687431517</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1962487694</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1960609518</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1981474658</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2190437010</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2168631052</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1537086455</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44570,20 +44542,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>1283434521</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1367402906</v>
+      </c>
+      <c r="E39" t="n">
+        <v>713059829.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1859143357</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3521569230</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5709652789</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7631179217</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8480509777</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10085790582</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8867908890</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10302235238</v>
+      </c>
+      <c r="N39" t="n">
+        <v>11842260474</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12228489373</v>
+      </c>
+      <c r="P39" t="n">
+        <v>12926055799</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44593,46 +44593,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>1283434521</v>
+        <v>76450892762</v>
       </c>
       <c r="D40" t="n">
-        <v>1367402906</v>
+        <v>69835951754</v>
       </c>
       <c r="E40" t="n">
-        <v>713059829.5</v>
+        <v>68132248923</v>
       </c>
       <c r="F40" t="n">
-        <v>1859143357</v>
+        <v>73378398708</v>
       </c>
       <c r="G40" t="n">
-        <v>3521569230</v>
+        <v>92792713003</v>
       </c>
       <c r="H40" t="n">
-        <v>5709652789</v>
+        <v>113944000000</v>
       </c>
       <c r="I40" t="n">
-        <v>7631179217</v>
+        <v>136258000000</v>
       </c>
       <c r="J40" t="n">
-        <v>8480509777</v>
+        <v>154340000000</v>
       </c>
       <c r="K40" t="n">
-        <v>10085790582</v>
+        <v>166929000000</v>
       </c>
       <c r="L40" t="n">
-        <v>8867908890</v>
+        <v>161172000000</v>
       </c>
       <c r="M40" t="n">
-        <v>10302235238</v>
+        <v>202874000000</v>
       </c>
       <c r="N40" t="n">
-        <v>11842260474</v>
+        <v>237241000000</v>
       </c>
       <c r="O40" t="n">
-        <v>12228489373</v>
+        <v>254758000000</v>
       </c>
       <c r="P40" t="n">
-        <v>12926055799</v>
+        <v>266076000000</v>
       </c>
     </row>
     <row r="41">
@@ -44643,46 +44643,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>76450892762</v>
+        <v>1183810000000</v>
       </c>
       <c r="D41" t="n">
-        <v>69835951754</v>
+        <v>1305630000000</v>
       </c>
       <c r="E41" t="n">
-        <v>68132248923</v>
+        <v>1438880000000</v>
       </c>
       <c r="F41" t="n">
-        <v>73378398708</v>
+        <v>1630740000000</v>
       </c>
       <c r="G41" t="n">
-        <v>92792713003</v>
+        <v>1926510000000</v>
       </c>
       <c r="H41" t="n">
-        <v>113944000000</v>
+        <v>2240790000000</v>
       </c>
       <c r="I41" t="n">
-        <v>136258000000</v>
+        <v>2707810000000</v>
       </c>
       <c r="J41" t="n">
-        <v>154340000000</v>
+        <v>3502100000000</v>
       </c>
       <c r="K41" t="n">
-        <v>166929000000</v>
+        <v>4550410000000</v>
       </c>
       <c r="L41" t="n">
-        <v>161172000000</v>
+        <v>4981700000000</v>
       </c>
       <c r="M41" t="n">
-        <v>202874000000</v>
+        <v>5904610000000</v>
       </c>
       <c r="N41" t="n">
-        <v>237241000000</v>
+        <v>7251600000000</v>
       </c>
       <c r="O41" t="n">
-        <v>254758000000</v>
+        <v>8209600000000</v>
       </c>
       <c r="P41" t="n">
-        <v>266076000000</v>
+        <v>9196170000000</v>
       </c>
     </row>
     <row r="42">
@@ -44693,46 +44693,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>1183810000000</v>
+        <v>97729650050</v>
       </c>
       <c r="D42" t="n">
-        <v>1305630000000</v>
+        <v>95779460550</v>
       </c>
       <c r="E42" t="n">
-        <v>1438880000000</v>
+        <v>95300395483</v>
       </c>
       <c r="F42" t="n">
-        <v>1630740000000</v>
+        <v>91452657617</v>
       </c>
       <c r="G42" t="n">
-        <v>1926510000000</v>
+        <v>113011000000</v>
       </c>
       <c r="H42" t="n">
-        <v>2240790000000</v>
+        <v>141255000000</v>
       </c>
       <c r="I42" t="n">
-        <v>2707810000000</v>
+        <v>157081000000</v>
       </c>
       <c r="J42" t="n">
-        <v>3502100000000</v>
+        <v>199772000000</v>
       </c>
       <c r="K42" t="n">
-        <v>4550410000000</v>
+        <v>234503000000</v>
       </c>
       <c r="L42" t="n">
-        <v>4981700000000</v>
+        <v>225455000000</v>
       </c>
       <c r="M42" t="n">
-        <v>5904610000000</v>
+        <v>275791000000</v>
       </c>
       <c r="N42" t="n">
-        <v>7251600000000</v>
+        <v>319928000000</v>
       </c>
       <c r="O42" t="n">
-        <v>8209600000000</v>
+        <v>355285000000</v>
       </c>
       <c r="P42" t="n">
-        <v>9196170000000</v>
+        <v>364217000000</v>
       </c>
     </row>
     <row r="43">
@@ -44743,46 +44743,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>97729650050</v>
+        <v>202241028.3</v>
       </c>
       <c r="D43" t="n">
-        <v>95779460550</v>
+        <v>220806717.3</v>
       </c>
       <c r="E43" t="n">
-        <v>95300395483</v>
+        <v>245984357.4</v>
       </c>
       <c r="F43" t="n">
-        <v>91452657617</v>
+        <v>316212688.7</v>
       </c>
       <c r="G43" t="n">
-        <v>113011000000</v>
+        <v>365981590.4</v>
       </c>
       <c r="H43" t="n">
-        <v>141255000000</v>
+        <v>378701227.5</v>
       </c>
       <c r="I43" t="n">
-        <v>157081000000</v>
+        <v>404673998.2</v>
       </c>
       <c r="J43" t="n">
-        <v>199772000000</v>
+        <v>461362252.1</v>
       </c>
       <c r="K43" t="n">
-        <v>234503000000</v>
+        <v>521949839.4</v>
       </c>
       <c r="L43" t="n">
-        <v>225455000000</v>
+        <v>523013648.1</v>
       </c>
       <c r="M43" t="n">
-        <v>275791000000</v>
+        <v>529362737.8</v>
       </c>
       <c r="N43" t="n">
-        <v>319928000000</v>
+        <v>585067732.6</v>
       </c>
       <c r="O43" t="n">
-        <v>355285000000</v>
+        <v>569709188.6</v>
       </c>
       <c r="P43" t="n">
-        <v>364217000000</v>
+        <v>617439683.4</v>
       </c>
     </row>
     <row r="44">
@@ -44793,46 +44793,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>202241028.3</v>
+        <v>2275221208</v>
       </c>
       <c r="D44" t="n">
-        <v>220806717.3</v>
+        <v>1967707317</v>
       </c>
       <c r="E44" t="n">
-        <v>245984357.4</v>
+        <v>2173255458</v>
       </c>
       <c r="F44" t="n">
-        <v>316212688.7</v>
+        <v>2578201938</v>
       </c>
       <c r="G44" t="n">
-        <v>365981590.4</v>
+        <v>3161681793</v>
       </c>
       <c r="H44" t="n">
-        <v>378701227.5</v>
+        <v>4032288390</v>
       </c>
       <c r="I44" t="n">
-        <v>404673998.2</v>
+        <v>5105401153</v>
       </c>
       <c r="J44" t="n">
-        <v>461362252.1</v>
+        <v>5774289433</v>
       </c>
       <c r="K44" t="n">
-        <v>521949839.4</v>
+        <v>8768093932</v>
       </c>
       <c r="L44" t="n">
-        <v>523013648.1</v>
+        <v>6978833031</v>
       </c>
       <c r="M44" t="n">
-        <v>529362737.8</v>
+        <v>9024207212</v>
       </c>
       <c r="N44" t="n">
-        <v>585067732.6</v>
+        <v>10713457667</v>
       </c>
       <c r="O44" t="n">
-        <v>569709188.6</v>
+        <v>10541860084</v>
       </c>
       <c r="P44" t="n">
-        <v>617439683.4</v>
+        <v>11049893387</v>
       </c>
     </row>
     <row r="45">
@@ -44843,46 +44843,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>2275221208</v>
+        <v>14694008016</v>
       </c>
       <c r="D45" t="n">
-        <v>1967707317</v>
+        <v>15724254954</v>
       </c>
       <c r="E45" t="n">
-        <v>2173255458</v>
+        <v>16404585172</v>
       </c>
       <c r="F45" t="n">
-        <v>2578201938</v>
+        <v>16741657421</v>
       </c>
       <c r="G45" t="n">
-        <v>3161681793</v>
+        <v>18156384016</v>
       </c>
       <c r="H45" t="n">
-        <v>4032288390</v>
+        <v>19756371751</v>
       </c>
       <c r="I45" t="n">
-        <v>5105401153</v>
+        <v>22530740184</v>
       </c>
       <c r="J45" t="n">
-        <v>5774289433</v>
+        <v>25457276185</v>
       </c>
       <c r="K45" t="n">
-        <v>8768093932</v>
+        <v>29414072576</v>
       </c>
       <c r="L45" t="n">
-        <v>6978833031</v>
+        <v>28298950581</v>
       </c>
       <c r="M45" t="n">
-        <v>9024207212</v>
+        <v>35553167787</v>
       </c>
       <c r="N45" t="n">
-        <v>10713457667</v>
+        <v>40648314463</v>
       </c>
       <c r="O45" t="n">
-        <v>10541860084</v>
+        <v>44545381752</v>
       </c>
       <c r="P45" t="n">
-        <v>11049893387</v>
+        <v>48525749298</v>
       </c>
     </row>
     <row r="46">
@@ -44893,46 +44893,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>14694008016</v>
+        <v>9715070921</v>
       </c>
       <c r="D46" t="n">
-        <v>15724254954</v>
+        <v>9911757609</v>
       </c>
       <c r="E46" t="n">
-        <v>16404585172</v>
+        <v>10806672843</v>
       </c>
       <c r="F46" t="n">
-        <v>16741657421</v>
+        <v>13017764907</v>
       </c>
       <c r="G46" t="n">
-        <v>18156384016</v>
+        <v>14763108673</v>
       </c>
       <c r="H46" t="n">
-        <v>19756371751</v>
+        <v>16432852653</v>
       </c>
       <c r="I46" t="n">
-        <v>22530740184</v>
+        <v>17091274824</v>
       </c>
       <c r="J46" t="n">
-        <v>25457276185</v>
+        <v>19535376329</v>
       </c>
       <c r="K46" t="n">
-        <v>29414072576</v>
+        <v>23327071772</v>
       </c>
       <c r="L46" t="n">
-        <v>28298950581</v>
+        <v>23342792424</v>
       </c>
       <c r="M46" t="n">
-        <v>35553167787</v>
+        <v>23972202221</v>
       </c>
       <c r="N46" t="n">
-        <v>40648314463</v>
+        <v>24393311762</v>
       </c>
       <c r="O46" t="n">
-        <v>44545381752</v>
+        <v>26178125524</v>
       </c>
       <c r="P46" t="n">
-        <v>48525749298</v>
+        <v>29881669525</v>
       </c>
     </row>
     <row r="47">
@@ -52223,46 +52223,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>30319527427</v>
+        <v>1557540000000</v>
       </c>
       <c r="D202" t="n">
-        <v>37342344577</v>
+        <v>1543050000000</v>
       </c>
       <c r="E202" t="n">
-        <v>41786896031</v>
+        <v>1700260000000</v>
       </c>
       <c r="F202" t="n">
-        <v>49551953288</v>
+        <v>1974540000000</v>
       </c>
       <c r="G202" t="n">
-        <v>64084296565</v>
+        <v>2337850000000</v>
       </c>
       <c r="H202" t="n">
-        <v>85157018069</v>
+        <v>2467920000000</v>
       </c>
       <c r="I202" t="n">
-        <v>106031000000</v>
+        <v>2609490000000</v>
       </c>
       <c r="J202" t="n">
-        <v>140602000000</v>
+        <v>2991420000000</v>
       </c>
       <c r="K202" t="n">
-        <v>178452000000</v>
+        <v>2796590000000</v>
       </c>
       <c r="L202" t="n">
-        <v>114788000000</v>
+        <v>2312880000000</v>
       </c>
       <c r="M202" t="n">
-        <v>134410000000</v>
+        <v>2434460000000</v>
       </c>
       <c r="N202" t="n">
-        <v>161004000000</v>
+        <v>2621860000000</v>
       </c>
       <c r="O202" t="n">
-        <v>180603000000</v>
+        <v>2606640000000</v>
       </c>
       <c r="P202" t="n">
-        <v>180979000000</v>
+        <v>2657930000000</v>
       </c>
     </row>
     <row r="203">
@@ -52273,46 +52273,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>1557540000000</v>
+        <v>30319527427</v>
       </c>
       <c r="D203" t="n">
-        <v>1543050000000</v>
+        <v>37342344577</v>
       </c>
       <c r="E203" t="n">
-        <v>1700260000000</v>
+        <v>41786896031</v>
       </c>
       <c r="F203" t="n">
-        <v>1974540000000</v>
+        <v>49551953288</v>
       </c>
       <c r="G203" t="n">
-        <v>2337850000000</v>
+        <v>64084296565</v>
       </c>
       <c r="H203" t="n">
-        <v>2467920000000</v>
+        <v>85157018069</v>
       </c>
       <c r="I203" t="n">
-        <v>2609490000000</v>
+        <v>106031000000</v>
       </c>
       <c r="J203" t="n">
-        <v>2991420000000</v>
+        <v>140602000000</v>
       </c>
       <c r="K203" t="n">
-        <v>2796590000000</v>
+        <v>178452000000</v>
       </c>
       <c r="L203" t="n">
-        <v>2312880000000</v>
+        <v>114788000000</v>
       </c>
       <c r="M203" t="n">
-        <v>2434460000000</v>
+        <v>134410000000</v>
       </c>
       <c r="N203" t="n">
-        <v>2621860000000</v>
+        <v>161004000000</v>
       </c>
       <c r="O203" t="n">
-        <v>2606640000000</v>
+        <v>180603000000</v>
       </c>
       <c r="P203" t="n">
-        <v>2657930000000</v>
+        <v>180979000000</v>
       </c>
     </row>
     <row r="204">
